--- a/539_by_year.xlsx
+++ b/539_by_year.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4325,6 +4325,358 @@
         <v>34</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>19</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27</v>
+      </c>
+      <c r="E178" t="n">
+        <v>32</v>
+      </c>
+      <c r="F178" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>16</v>
+      </c>
+      <c r="C179" t="n">
+        <v>18</v>
+      </c>
+      <c r="D179" t="n">
+        <v>23</v>
+      </c>
+      <c r="E179" t="n">
+        <v>36</v>
+      </c>
+      <c r="F179" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>29</v>
+      </c>
+      <c r="F180" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>10</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26</v>
+      </c>
+      <c r="F181" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>14</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15</v>
+      </c>
+      <c r="D182" t="n">
+        <v>18</v>
+      </c>
+      <c r="E182" t="n">
+        <v>23</v>
+      </c>
+      <c r="F182" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>16</v>
+      </c>
+      <c r="D183" t="n">
+        <v>22</v>
+      </c>
+      <c r="E183" t="n">
+        <v>23</v>
+      </c>
+      <c r="F183" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" t="n">
+        <v>13</v>
+      </c>
+      <c r="F184" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>17</v>
+      </c>
+      <c r="C185" t="n">
+        <v>22</v>
+      </c>
+      <c r="D185" t="n">
+        <v>24</v>
+      </c>
+      <c r="E185" t="n">
+        <v>30</v>
+      </c>
+      <c r="F185" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>11</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12</v>
+      </c>
+      <c r="D186" t="n">
+        <v>17</v>
+      </c>
+      <c r="E186" t="n">
+        <v>34</v>
+      </c>
+      <c r="F186" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>13</v>
+      </c>
+      <c r="D187" t="n">
+        <v>18</v>
+      </c>
+      <c r="E187" t="n">
+        <v>33</v>
+      </c>
+      <c r="F187" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>14</v>
+      </c>
+      <c r="D188" t="n">
+        <v>22</v>
+      </c>
+      <c r="E188" t="n">
+        <v>25</v>
+      </c>
+      <c r="F188" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>21</v>
+      </c>
+      <c r="D189" t="n">
+        <v>23</v>
+      </c>
+      <c r="E189" t="n">
+        <v>25</v>
+      </c>
+      <c r="F189" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>13</v>
+      </c>
+      <c r="C190" t="n">
+        <v>20</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21</v>
+      </c>
+      <c r="E190" t="n">
+        <v>32</v>
+      </c>
+      <c r="F190" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>10</v>
+      </c>
+      <c r="D191" t="n">
+        <v>24</v>
+      </c>
+      <c r="E191" t="n">
+        <v>28</v>
+      </c>
+      <c r="F191" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="n">
+        <v>20</v>
+      </c>
+      <c r="D192" t="n">
+        <v>28</v>
+      </c>
+      <c r="E192" t="n">
+        <v>30</v>
+      </c>
+      <c r="F192" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>11</v>
+      </c>
+      <c r="C193" t="n">
+        <v>25</v>
+      </c>
+      <c r="D193" t="n">
+        <v>27</v>
+      </c>
+      <c r="E193" t="n">
+        <v>30</v>
+      </c>
+      <c r="F193" t="n">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
